--- a/plosdata/target/classes/plos_articles.xlsx
+++ b/plosdata/target/classes/plos_articles.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-29740" yWindow="200" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="4380" yWindow="2420" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="425">
   <si>
     <t>PLOS articles citation</t>
   </si>
@@ -1282,13 +1282,25 @@
   </si>
   <si>
     <t>Center for Bioengineering, Electrical and Computer Engineering</t>
+  </si>
+  <si>
+    <t>Sorghum Genome Sequencing by Methylation Filtration</t>
+  </si>
+  <si>
+    <t>Department of Chemistry and Biochemistry</t>
+  </si>
+  <si>
+    <t>Bruce A Roe</t>
+  </si>
+  <si>
+    <t>Bedell JA, Budiman MA, Nunberg A, Citek RW, Robbins D, et al. (2005) Sorghum Genome Sequencing by Methylation Filtration. PLoS Biol 3(1): e13. doi:10.1371/journal.pbio.0030013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1333,6 +1345,16 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1354,7 +1376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1516,6 +1538,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1830,7 +1867,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1906,6 +1943,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2549,10 +2590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F365"/>
+  <dimension ref="A1:F367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="B360" sqref="B360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6752,6 +6793,38 @@
       <c r="E365" s="29"/>
       <c r="F365" s="20"/>
     </row>
+    <row r="366" spans="1:6" ht="15" customHeight="1">
+      <c r="A366" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="B366" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C366" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="D366" s="41"/>
+      <c r="E366" s="42">
+        <v>38356</v>
+      </c>
+      <c r="F366"/>
+    </row>
+    <row r="367" spans="1:6" ht="15" customHeight="1">
+      <c r="A367" s="41"/>
+      <c r="B367" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="C367" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="D367" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="E367" s="42">
+        <v>38356</v>
+      </c>
+      <c r="F367"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
